--- a/data/income_statement/3digits/total/151_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/151_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>151-Tanning and dressing of leather; manufacture of luggage, handbags, saddlery and harness; dressing and dyeing of fur</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>151-Tanning and dressing of leather; manufacture of luggage, handbags, saddlery and harness; dressing and dyeing of fur</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>1672096.26281</v>
@@ -956,37 +862,42 @@
         <v>2008727.64879</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2851011.79506</v>
+        <v>2851095.85404</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>3292354.30745</v>
+        <v>3292999.26283</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3513085.7372</v>
+        <v>3517712.64321</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>3831756.63989</v>
+        <v>3832620.56291</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3651095.70391</v>
+        <v>3699976.33459</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>3838732.5784</v>
+        <v>3842963.442040001</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>4923328.845360001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>6407001.217350001</v>
+        <v>6407703.705159999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>7633990.84929</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>7756619.128230001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>6851404.209</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>1235168.48059</v>
@@ -995,37 +906,42 @@
         <v>1510150.50452</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>2119379.38149</v>
+        <v>2119426.12833</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2543327.66522</v>
+        <v>2543972.6206</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2687631.4902</v>
+        <v>2691625.88462</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2958533.64425</v>
+        <v>2958679.67426</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>2858247.85791</v>
+        <v>2889717.66822</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>3105248.71815</v>
+        <v>3108815.33207</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>4015081.8194</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>5046120.86694</v>
+        <v>5046799.09133</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>6066519.83438</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>6179005.063139999</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>5536347.747</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>405115.43731</v>
@@ -1034,37 +950,42 @@
         <v>473552.9062</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>692493.7781400001</v>
+        <v>692531.09028</v>
       </c>
       <c r="F7" s="48" t="n">
         <v>704151.73785</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>784770.7802200001</v>
+        <v>785400.70126</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>835540.7673699999</v>
+        <v>836258.66038</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>746291.9074400001</v>
+        <v>763159.2310499999</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>679155.43732</v>
+        <v>679796.6500799999</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>838576.9974399999</v>
+        <v>838576.9974400001</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>1270457.10051</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1460429.88006</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1469504.19522</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1196209.662</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>31812.34491</v>
@@ -1073,37 +994,42 @@
         <v>25024.23807</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>39138.63542999999</v>
+        <v>39138.63543</v>
       </c>
       <c r="F8" s="48" t="n">
         <v>44874.90438</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>40683.46678</v>
+        <v>40686.05733</v>
       </c>
       <c r="H8" s="48" t="n">
         <v>37682.22826999999</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>46555.93856</v>
+        <v>47099.43532</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>54328.42293000001</v>
+        <v>54351.45989</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>69670.02852000001</v>
+        <v>69670.02851999999</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>90423.24990000001</v>
+        <v>90447.51332</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>107041.13485</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>108109.86987</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>118846.8</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>36205.74558</v>
@@ -1118,31 +1044,36 @@
         <v>147765.31903</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>173449.38905</v>
+        <v>173523.33891</v>
       </c>
       <c r="H9" s="47" t="n">
         <v>205244.13227</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>200862.1185</v>
+        <v>201347.9429</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>265503.09756</v>
+        <v>265503.14656</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>384625.86973</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>537151.49271</v>
+        <v>537153.95771</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>701829.77397</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>702210.2744</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>439642.765</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>22880.69125</v>
@@ -1157,16 +1088,16 @@
         <v>44662.67296</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>48055.83559999999</v>
+        <v>48129.78546</v>
       </c>
       <c r="H10" s="48" t="n">
         <v>67068.82595</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>54039.0601</v>
+        <v>54518.87512999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>65017.20727</v>
+        <v>65017.25627000001</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>87698.45736</v>
@@ -1175,13 +1106,18 @@
         <v>124021.81546</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>164858.50156</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>165229.25675</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>132220.164</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>11716.75341</v>
@@ -1202,25 +1138,30 @@
         <v>130977.71757</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>141233.58823</v>
+        <v>141239.3336</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>197169.51947</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>291751.2886800001</v>
+        <v>291751.28868</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>406026.55866</v>
+        <v>406029.0236599999</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>528641.22243</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>301883.468</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1608.30092</v>
@@ -1241,7 +1182,7 @@
         <v>7197.58875</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>5589.47017</v>
+        <v>5589.734169999999</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>3316.37082</v>
@@ -1253,13 +1194,18 @@
         <v>7103.11859</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>8330.049980000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>8339.79522</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>5539.133</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>1635890.51723</v>
@@ -1268,37 +1214,42 @@
         <v>1967138.63108</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2780761.51244</v>
+        <v>2780845.57142</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>3144588.98842</v>
+        <v>3145233.9438</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>3339636.34815</v>
+        <v>3344189.3043</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3626512.50762</v>
+        <v>3627376.43064</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3450233.58541</v>
+        <v>3498628.39169</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>3573229.48084</v>
+        <v>3577460.29548</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>4538702.97563</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>5869849.724640001</v>
+        <v>5870549.74745</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>6932161.07532</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>7054408.85383</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>6411761.444</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>1403026.29928</v>
@@ -1307,37 +1258,42 @@
         <v>1705153.52626</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>2375392.82563</v>
+        <v>2375472.02851</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>2738814.89237</v>
+        <v>2739654.33258</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2852291.16288</v>
+        <v>2856691.410939999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>3126441.19428</v>
+        <v>3127191.5591</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2926494.61798</v>
+        <v>2967115.81589</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>3041065.25242</v>
+        <v>3044674.62141</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>3835744.25665</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>4943234.47817</v>
+        <v>4944041.52311</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>5855836.046949999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5961863.63831</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>5391761.168</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>1117959.94353</v>
@@ -1346,37 +1302,42 @@
         <v>1364681.70647</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>1844026.49395</v>
+        <v>1844105.69683</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>2246492.5254</v>
+        <v>2246581.52493</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>2405248.25771</v>
+        <v>2409648.50577</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>2580385.74728</v>
+        <v>2581085.27242</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>2377725.00838</v>
+        <v>2417129.07657</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>2404445.39584</v>
+        <v>2406684.49984</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>3048770.13553</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>4000941.79572</v>
+        <v>4001279.05564</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>4782244.043409999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>4869945.89758</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>4365644.666</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>238947.06211</v>
@@ -1388,7 +1349,7 @@
         <v>464227.34841</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>411629.32154</v>
+        <v>412379.76222</v>
       </c>
       <c r="G16" s="48" t="n">
         <v>358578.90019</v>
@@ -1397,34 +1358,39 @@
         <v>450334.26726</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>471316.43809</v>
+        <v>472075.8504</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>562585.7929</v>
+        <v>562696.40526</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>664656.0865699999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>815572.4308</v>
+        <v>815692.6575500001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>900984.7081599999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>914570.2281899999</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>854305.973</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>39475.91106000001</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>43208.34372999999</v>
+        <v>43208.34373000001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>59808.80095999999</v>
+        <v>59808.80096000001</v>
       </c>
       <c r="F17" s="48" t="n">
         <v>72243.60342</v>
@@ -1433,28 +1399,33 @@
         <v>75817.39525</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>68045.91175</v>
+        <v>68096.75143</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>60925.19536</v>
+        <v>61382.91277</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>61698.12743</v>
+        <v>62988.65006</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>105914.25212</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>113658.1857</v>
+        <v>114007.74397</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>155766.34449</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>160506.56165</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>146905.836</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>6643.38258</v>
@@ -1478,7 +1449,7 @@
         <v>16527.97615</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>12335.93625</v>
+        <v>12305.06625</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>16403.78243</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>16840.95089</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>24904.693</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>232864.21795</v>
@@ -1502,76 +1478,86 @@
         <v>261985.10482</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>405368.68681</v>
+        <v>405373.54291</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>405774.09605</v>
+        <v>405579.61122</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>487345.18527</v>
+        <v>487497.89336</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>500071.31334</v>
+        <v>500184.87154</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>523738.96743</v>
+        <v>531512.5758</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>532164.2284200001</v>
+        <v>532785.67407</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>702958.71898</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>926615.2464699999</v>
+        <v>926508.22434</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1076325.02837</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1092545.21552</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1020000.276</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>162413.57447</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>187933.40389</v>
+        <v>187960.84373</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>241458.07597</v>
+        <v>241490.09436</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>278024.10587</v>
+        <v>278085.01908</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>307774.79419</v>
+        <v>307876.13345</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>334351.46238</v>
+        <v>334498.5107100001</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>332210.83041</v>
+        <v>336267.18497</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>356761.3818</v>
+        <v>357262.25949</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>403847.15724</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>514210.3275600001</v>
+        <v>515192.82075</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>609487.8044</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>620329.91013</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>579659.0919999999</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>2288.04414</v>
@@ -1601,172 +1587,197 @@
         <v>2377.8017</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>3905.81528</v>
+        <v>3906.599180000001</v>
       </c>
       <c r="M21" s="48" t="n">
         <v>4119.95799</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>4411.723</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>68747.23342999999</v>
+        <v>68747.23343000001</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>84077.12109999999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>114835.68334</v>
+        <v>114835.85901</v>
       </c>
       <c r="F22" s="48" t="n">
         <v>136397.63765</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>148915.94868</v>
+        <v>148927.22983</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>170289.45538</v>
+        <v>170335.56885</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>160983.56095</v>
+        <v>163257.82147</v>
       </c>
       <c r="J22" s="48" t="n">
         <v>182825.65577</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>215960.8357999999</v>
+        <v>215960.8358</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>279041.4131599999</v>
+        <v>279061.01969</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>326464.0789</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>332198.53787</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>279223.895</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>91378.2969</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>102327.01346</v>
+        <v>102354.4533</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>123825.93237</v>
+        <v>123857.77509</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>140019.98898</v>
+        <v>140080.90219</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>156654.4007</v>
+        <v>156744.45881</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>162334.19207</v>
+        <v>162435.12693</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>169156.83133</v>
+        <v>170938.92537</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>171473.76899</v>
+        <v>171974.64668</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>185508.51974</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>231263.09912</v>
+        <v>232225.20188</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>278903.76751</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>284011.41427</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>296023.474</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>70450.64348000001</v>
+        <v>70450.64347999998</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>74051.70093000001</v>
+        <v>74024.26109</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>163910.61084</v>
+        <v>163883.44855</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>127749.99018</v>
+        <v>127494.59214</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>179570.39108</v>
+        <v>179621.75991</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>165719.85096</v>
+        <v>165686.36083</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>191528.13702</v>
+        <v>195245.39083</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>175402.84662</v>
+        <v>175523.41458</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>299111.56174</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>412404.9189099999</v>
+        <v>411315.40359</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>466837.2239700001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>472215.30539</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>440341.184</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>76823.35047</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>78403.92926999999</v>
+        <v>78413.67584000001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>112271.80836</v>
+        <v>112277.82283</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>109920.84237</v>
+        <v>109949.46809</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>163826.07239</v>
+        <v>163842.11638</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>202286.56474</v>
+        <v>202304.50248</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>426523.6767499999</v>
+        <v>431731.8852200001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>268711.25095</v>
+        <v>268763.25936</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>228167.87693</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>679218.5805</v>
+        <v>680036.2898200001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>325888.72097</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>333065.1957</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>675175.7169999999</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>3132.7278</v>
@@ -1784,13 +1795,13 @@
         <v>1196.68473</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>3682.93835</v>
+        <v>3682.938349999999</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>2427.64683</v>
+        <v>2768.33522</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>3962.254800000001</v>
+        <v>3962.2548</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>4922.106519999999</v>
@@ -1799,13 +1810,18 @@
         <v>5229.96617</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>6199.10598</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>6199.105979999999</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>6194.244</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>119.23836</v>
@@ -1840,14 +1856,19 @@
       <c r="M27" s="48" t="n">
         <v>145.43494</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>2879.59065</v>
+        <v>2879.590650000001</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>2998.89477</v>
@@ -1859,31 +1880,36 @@
         <v>4401.963299999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>4452.43722</v>
+        <v>4462.156099999999</v>
       </c>
       <c r="H28" s="48" t="n">
         <v>7042.53517</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>9733.006190000002</v>
+        <v>9733.756690000002</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>7118.733439999999</v>
+        <v>7119.31033</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>7911.632340000001</v>
+        <v>7911.63234</v>
       </c>
       <c r="L28" s="48" t="n">
         <v>14794.90457</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>18916.06927</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>20578.57855</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>16667.317</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>487.43729</v>
@@ -1916,13 +1942,18 @@
         <v>306.47593</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>290.23785</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>570.23784</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>260.842</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>332.39902</v>
@@ -1934,7 +1965,7 @@
         <v>502.59175</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>419.11696</v>
+        <v>419.1169599999999</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>463.77553</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>3464.68163</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>2258.544</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>45.67576</v>
@@ -1979,10 +2015,10 @@
         <v>113.73149</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>84.13879</v>
+        <v>84.13879000000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>112.9218</v>
+        <v>151.49467</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>2380.95059</v>
@@ -1991,55 +2027,65 @@
         <v>5936.156950000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>682.3073900000001</v>
+        <v>682.3073899999999</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>253.20116</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>71989.22199999999</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>56779.06799</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>59682.73985</v>
+        <v>59692.48642</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>89373.11908000002</v>
+        <v>89379.13355</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>76151.81178999999</v>
+        <v>76174.33581</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>127740.30356</v>
+        <v>127744.02783</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>125482.75445</v>
+        <v>125500.69219</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>274972.89073</v>
+        <v>279323.4445</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>178971.244</v>
+        <v>179021.0923</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>150102.31922</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>566708.30817</v>
+        <v>567311.4071299999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>220194.26263</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>223394.41825</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>493222.369</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>175.4954</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>33431.29727</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>16311.697</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>65.68171</v>
@@ -2087,10 +2138,10 @@
         <v>58.18621000000001</v>
       </c>
       <c r="E34" s="48" t="n">
-        <v>7.701029999999999</v>
+        <v>7.70103</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>44.30370000000001</v>
+        <v>44.3037</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>27.05028</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>4.91883</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>64.857</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>12806.03649</v>
@@ -2129,76 +2185,86 @@
         <v>16885.01157</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>25378.21358</v>
+        <v>25384.31528</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>29224.81252</v>
+        <v>29227.41336</v>
       </c>
       <c r="H35" s="48" t="n">
         <v>59979.51162</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>124422.98657</v>
+        <v>124900.62951</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>58392.63697</v>
+        <v>58394.22019</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>41326.72147</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>63579.62133000001</v>
+        <v>63794.23169</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>42989.51141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>45023.32125</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>68206.625</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>64695.29906</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>53712.90932999999</v>
+        <v>53723.35031</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>102325.07057</v>
+        <v>102330.29531</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>80108.18395000001</v>
+        <v>80112.13334999999</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>194142.31489</v>
+        <v>194151.24931</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>194085.22395</v>
+        <v>194089.53158</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>431734.9782600001</v>
+        <v>436101.30788</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>289449.33443</v>
+        <v>289489.62438</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>216134.27515</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>700262.21613</v>
+        <v>700715.95614</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>337283.95736</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>338620.84526</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>610843.995</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>723.5346</v>
+        <v>723.5346000000001</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>571.5275300000001</v>
@@ -2216,7 +2282,7 @@
         <v>7516.12574</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1928.13135</v>
+        <v>2118.82034</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>2128.1546</v>
@@ -2225,16 +2291,21 @@
         <v>4067.83929</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>4468.734570000001</v>
+        <v>4478.93507</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>4371.96661</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>4646.29747</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>4088.941</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>4599.19069</v>
@@ -2255,7 +2326,7 @@
         <v>14743.50713</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>17948.32957</v>
+        <v>18076.21357</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>11933.16341</v>
@@ -2267,13 +2338,18 @@
         <v>32309.50262</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>54968.65131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>55052.15131</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>15369.421</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>23.095</v>
@@ -2288,7 +2364,7 @@
         <v>11.22039</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>6.32385</v>
+        <v>6.323849999999999</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>20.60666</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>65.90598000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>68156.523</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>52930.29256</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>46933.57353</v>
+        <v>46944.01451</v>
       </c>
       <c r="E40" s="48" t="n">
         <v>89182.06616</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>58121.26023000001</v>
+        <v>58125.20963</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>144450.99753</v>
+        <v>144459.93195</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>120448.02016</v>
+        <v>120452.32779</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>291786.23155</v>
+        <v>295833.56167</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>194511.07502</v>
+        <v>194554.49409</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>160067.96689</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>588585.23551</v>
+        <v>589028.0624500001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>237009.30655</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>237987.80494</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>486578.426</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>14.4194</v>
@@ -2369,7 +2455,7 @@
         <v>1726.7891</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>6131.69588</v>
+        <v>6131.695880000001</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>12940.12166</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>24859.92262</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>14422.965</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.0007199999999999999</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>7.023790000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>6404.76609</v>
@@ -2438,7 +2534,7 @@
         <v>3948.77936</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>10768.88789</v>
+        <v>10774.11263</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>19050.19256</v>
@@ -2447,28 +2543,33 @@
         <v>44703.08465</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>45225.26838</v>
+        <v>45225.26837999999</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>106714.63367</v>
+        <v>106715.06018</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>64680.83663</v>
+        <v>64677.70751</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>15379.40814</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>41974.43882000001</v>
+        <v>41975.15139</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>16001.1805</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>16001.73915</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>22227.717</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>48399.57668999999</v>
@@ -2480,34 +2581,39 @@
         <v>74961.85087000001</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>59274.56551000001</v>
+        <v>59297.97302</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>90314.30297</v>
+        <v>90314.55378999999</v>
       </c>
       <c r="H44" s="47" t="n">
         <v>94478.31087</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>141328.14666</v>
+        <v>141913.57787</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>146284.52826</v>
+        <v>146289.20266</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>169213.23068</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>301443.62048</v>
+        <v>301775.0097</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>206710.10012</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>209345.71364</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>192778.822</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>45846.78783</v>
@@ -2519,34 +2625,39 @@
         <v>65300.70454999999</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>54521.41964999999</v>
+        <v>54544.82715999999</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>81967.82706</v>
+        <v>81968.07788</v>
       </c>
       <c r="H45" s="48" t="n">
         <v>92041.89228999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>137244.14096</v>
+        <v>137829.57217</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>142582.5817</v>
+        <v>142587.2561</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>158814.07296</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>282878.0064600001</v>
+        <v>283209.39568</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>201586.09528</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>204168.78682</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>188309.524</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>2552.78886</v>
@@ -2558,7 +2669,7 @@
         <v>9661.14632</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>4753.145860000001</v>
+        <v>4753.14586</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>8346.475910000001</v>
@@ -2579,52 +2690,62 @@
         <v>18565.61402</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>5124.00484</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>5176.926820000001</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>4469.298</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>34179.1182</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>63028.17528</v>
+        <v>63000.04103</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>98895.49775999998</v>
+        <v>98869.12520000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>98288.08309</v>
+        <v>98033.95386000001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>58939.84561</v>
+        <v>58998.07319</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>79442.88088</v>
+        <v>79423.02086</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>44988.68885</v>
+        <v>48962.3903</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>8380.234879999998</v>
+        <v>8507.846899999997</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>141931.93284</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>89917.66280000001</v>
+        <v>88860.72756999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>248731.88746</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>257313.94219</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>311894.084</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>26373.382</v>
@@ -2636,34 +2757,39 @@
         <v>11630.69995</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>22303.95114</v>
+        <v>22352.35865</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>45545.34466999999</v>
+        <v>45545.34467</v>
       </c>
       <c r="H48" s="47" t="n">
         <v>27758.7048</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>32958.85874</v>
+        <v>33319.84754</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>34059.01513</v>
+        <v>34083.41628</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>44454.10193</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>56691.92823</v>
+        <v>56711.95337</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>47004.08154</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>47096.5892</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>98849.876</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>2582.18721</v>
@@ -2681,10 +2807,10 @@
         <v>167.75428</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>97.06915999999998</v>
+        <v>97.06916</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>172.60639</v>
+        <v>161.76629</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>184.55833</v>
@@ -2696,13 +2822,18 @@
         <v>612.58222</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>499.05834</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>502.14448</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>199.647</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>23791.19479</v>
@@ -2714,7 +2845,7 @@
         <v>11337.5073</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>22121.18455</v>
+        <v>22169.59206</v>
       </c>
       <c r="G50" s="48" t="n">
         <v>45377.59039</v>
@@ -2723,64 +2854,74 @@
         <v>27661.63564</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>32786.25235</v>
+        <v>33158.08125</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>33874.4568</v>
+        <v>33898.85795000001</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>44413.07731</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>56079.34601000001</v>
+        <v>56099.37115</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>46505.0232</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>46594.44472</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>98650.22900000001</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>21222.03412</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>10154.45449</v>
+        <v>10154.73449</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>93872.31562000001</v>
+        <v>93882.80544</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>16970.77617</v>
+        <v>16971.11747</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>17288.40975</v>
+        <v>17288.65272</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>46436.97415000001</v>
+        <v>46437.02048</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>20872.2621</v>
+        <v>21536.36093</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>99374.88162</v>
+        <v>99381.58032000001</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>25042.92342</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>138851.77082</v>
+        <v>139113.6343</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>38283.77617999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>39852.98489</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>39696.373</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>4826.754480000001</v>
@@ -2801,7 +2942,7 @@
         <v>3543.40784</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>7583.47098</v>
+        <v>7721.00894</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>6694.86893</v>
@@ -2813,13 +2954,18 @@
         <v>7447.13991</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>15664.80416</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>16311.86098</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>8650.901</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>2614.69894</v>
@@ -2840,106 +2986,121 @@
         <v>2686.84623</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>729.7986500000001</v>
+        <v>730.2259499999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>6878.337259999999</v>
+        <v>6885.30348</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>941.7272599999999</v>
+        <v>941.72726</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>1226.32684</v>
+        <v>1337.14567</v>
       </c>
       <c r="M53" s="48" t="n">
         <v>896.66299</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="48" t="n">
+        <v>3036.267</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>13780.5807</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>7601.621690000002</v>
+        <v>7601.90169</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>85407.27585999999</v>
+        <v>85417.76568000001</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>11010.49733</v>
+        <v>11010.83863</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>15051.00715</v>
+        <v>15051.25012</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>40206.72008</v>
+        <v>40206.76641</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>12558.99247</v>
+        <v>13085.12604</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>85801.67543</v>
+        <v>85801.40790999999</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>18554.63071</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>130178.30407</v>
+        <v>130329.34872</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>21722.30903</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>22644.46092</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>28009.205</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>39330.46608</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>63688.08130999999</v>
+        <v>63659.66706</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>16653.88209</v>
+        <v>16617.01971</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>103621.25806</v>
+        <v>103415.19504</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>87196.78053</v>
+        <v>87254.76514</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>60764.61153</v>
+        <v>60744.70518</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>57075.28548999999</v>
+        <v>60745.87691</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-56935.63161</v>
+        <v>-56790.31714</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>161343.11135</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>7757.820209999997</v>
+        <v>6459.046639999998</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>257452.19282</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>264557.5465</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>371047.587</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>8061.05923</v>
+        <v>8061.059230000001</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>11726.59341</v>
@@ -2954,64 +3115,72 @@
         <v>16864.37186</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>15352.30571</v>
+        <v>15362.85132</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>16624.88659</v>
+        <v>17144.62833</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>17210.43442</v>
+        <v>17238.85271</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>23080.12568</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>31603.21402</v>
+        <v>31607.76357</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>50639.48808</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>53004.33824</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>50382.308</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>31269.40685</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>51961.48790000001</v>
+        <v>51933.07365</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-898.1254900000002</v>
+        <v>-934.9878699999994</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>84230.30035999999</v>
+        <v>84024.23734000001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>70332.40867</v>
+        <v>70390.39328</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>45412.30582000001</v>
+        <v>45381.85386</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>40450.3989</v>
+        <v>43601.24858</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-74146.06602999999</v>
+        <v>-74029.16985000001</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>138262.98567</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-23845.39381</v>
+        <v>-25148.71692999999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>206812.70474</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>211553.20826</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>320665.279</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1215</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>959</v>
+        <v>962</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>889</v>
+        <v>900</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>931</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>867</v>
+        <v>940</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>872</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>983</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>